--- a/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- CSS Rules Inspector.xlsx
+++ b/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- CSS Rules Inspector.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R434eb1501abd46e4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756">
   <si>
     <t>字段1_文本2</t>
   </si>
@@ -2264,24 +2267,215 @@
   </si>
   <si>
     <t>Pasting long rules in Ruleview can move all rules to the left, breaking the UI</t>
+  </si>
+  <si>
+    <t>加入新rule时提供id和class name</t>
+  </si>
+  <si>
+    <t>给所有css cariables添加信息</t>
+  </si>
+  <si>
+    <t>将选择转换为内联编辑器</t>
+  </si>
+  <si>
+    <t>允许循环遍历值，而不必先删除它们</t>
+  </si>
+  <si>
+    <t>增加css的转换工具提示</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2290,11 +2484,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2304,44 +2685,604 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" defaultColWidth="20"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="8.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="102.777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2387,7 +3328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +3374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2456,7 +3397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2479,7 +3420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2502,7 +3443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2525,7 +3466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +3489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +3512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2594,7 +3535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -2617,7 +3558,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +3581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
@@ -2663,7 +3604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -2686,7 +3627,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
@@ -2709,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -2732,7 +3673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2755,7 +3696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>76</v>
       </c>
@@ -2778,7 +3719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>80</v>
       </c>
@@ -2801,7 +3742,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2824,7 +3765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2847,7 +3788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -2870,7 +3811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -2893,7 +3834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
@@ -2916,7 +3857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>102</v>
       </c>
@@ -2939,7 +3880,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
@@ -2962,7 +3903,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>110</v>
       </c>
@@ -2985,7 +3926,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>114</v>
       </c>
@@ -3008,7 +3949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
@@ -3031,7 +3972,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>121</v>
       </c>
@@ -3054,7 +3995,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
@@ -3077,7 +4018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>129</v>
       </c>
@@ -3100,7 +4041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>133</v>
       </c>
@@ -3123,7 +4064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
@@ -3146,7 +4087,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>141</v>
       </c>
@@ -3169,7 +4110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>145</v>
       </c>
@@ -3192,7 +4133,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>148</v>
       </c>
@@ -3215,7 +4156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>151</v>
       </c>
@@ -3238,7 +4179,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>155</v>
       </c>
@@ -3261,7 +4202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>158</v>
       </c>
@@ -3284,7 +4225,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>161</v>
       </c>
@@ -3307,7 +4248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
@@ -3330,7 +4271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -3353,7 +4294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>170</v>
       </c>
@@ -3376,7 +4317,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>174</v>
       </c>
@@ -3399,7 +4340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
@@ -3422,7 +4363,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>182</v>
       </c>
@@ -3445,7 +4386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>186</v>
       </c>
@@ -3468,7 +4409,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>190</v>
       </c>
@@ -3491,7 +4432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
@@ -3514,7 +4455,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>198</v>
       </c>
@@ -3537,7 +4478,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>202</v>
       </c>
@@ -3560,7 +4501,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>206</v>
       </c>
@@ -3583,7 +4524,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>209</v>
       </c>
@@ -3606,7 +4547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>212</v>
       </c>
@@ -3629,7 +4570,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>216</v>
       </c>
@@ -3652,7 +4593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>220</v>
       </c>
@@ -3675,7 +4616,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>224</v>
       </c>
@@ -3698,7 +4639,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>227</v>
       </c>
@@ -3721,7 +4662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>230</v>
       </c>
@@ -3744,7 +4685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>233</v>
       </c>
@@ -3767,7 +4708,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>237</v>
       </c>
@@ -3790,7 +4731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>240</v>
       </c>
@@ -3813,7 +4754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>243</v>
       </c>
@@ -3836,7 +4777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>246</v>
       </c>
@@ -3859,7 +4800,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>250</v>
       </c>
@@ -3882,7 +4823,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>254</v>
       </c>
@@ -3905,7 +4846,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>257</v>
       </c>
@@ -3928,7 +4869,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>261</v>
       </c>
@@ -3951,7 +4892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>264</v>
       </c>
@@ -3974,7 +4915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>267</v>
       </c>
@@ -3997,7 +4938,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>270</v>
       </c>
@@ -4020,7 +4961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>273</v>
       </c>
@@ -4043,7 +4984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>276</v>
       </c>
@@ -4066,7 +5007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>279</v>
       </c>
@@ -4089,7 +5030,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>282</v>
       </c>
@@ -4112,7 +5053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>285</v>
       </c>
@@ -4135,7 +5076,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>289</v>
       </c>
@@ -4158,7 +5099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>292</v>
       </c>
@@ -4181,7 +5122,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
@@ -4204,7 +5145,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>299</v>
       </c>
@@ -4227,7 +5168,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>302</v>
       </c>
@@ -4250,7 +5191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>305</v>
       </c>
@@ -4273,7 +5214,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>309</v>
       </c>
@@ -4296,7 +5237,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>313</v>
       </c>
@@ -4319,7 +5260,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>317</v>
       </c>
@@ -4342,7 +5283,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>320</v>
       </c>
@@ -4365,7 +5306,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>324</v>
       </c>
@@ -4388,7 +5329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>327</v>
       </c>
@@ -4411,7 +5352,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>331</v>
       </c>
@@ -4434,7 +5375,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>335</v>
       </c>
@@ -4457,7 +5398,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>338</v>
       </c>
@@ -4480,7 +5421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>341</v>
       </c>
@@ -4503,7 +5444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>344</v>
       </c>
@@ -4526,7 +5467,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>348</v>
       </c>
@@ -4549,7 +5490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>351</v>
       </c>
@@ -4572,7 +5513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>354</v>
       </c>
@@ -4595,7 +5536,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>357</v>
       </c>
@@ -4618,7 +5559,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>361</v>
       </c>
@@ -4641,7 +5582,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>365</v>
       </c>
@@ -4664,7 +5605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>368</v>
       </c>
@@ -4687,7 +5628,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>372</v>
       </c>
@@ -4710,7 +5651,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>376</v>
       </c>
@@ -4733,7 +5674,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>379</v>
       </c>
@@ -4756,7 +5697,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>383</v>
       </c>
@@ -4779,7 +5720,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>386</v>
       </c>
@@ -4802,7 +5743,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>390</v>
       </c>
@@ -4825,7 +5766,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>393</v>
       </c>
@@ -4848,7 +5789,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>396</v>
       </c>
@@ -4871,7 +5812,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>399</v>
       </c>
@@ -4894,7 +5835,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>402</v>
       </c>
@@ -4917,7 +5858,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>405</v>
       </c>
@@ -4940,7 +5881,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>409</v>
       </c>
@@ -4963,7 +5904,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>412</v>
       </c>
@@ -4986,7 +5927,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>415</v>
       </c>
@@ -5009,7 +5950,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>418</v>
       </c>
@@ -5032,7 +5973,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>421</v>
       </c>
@@ -5055,7 +5996,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>424</v>
       </c>
@@ -5078,7 +6019,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>427</v>
       </c>
@@ -5101,7 +6042,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>431</v>
       </c>
@@ -5124,7 +6065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>434</v>
       </c>
@@ -5147,7 +6088,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>437</v>
       </c>
@@ -5170,7 +6111,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>441</v>
       </c>
@@ -5193,7 +6134,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>444</v>
       </c>
@@ -5216,7 +6157,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>447</v>
       </c>
@@ -5239,7 +6180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>450</v>
       </c>
@@ -5262,7 +6203,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>454</v>
       </c>
@@ -5285,7 +6226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>457</v>
       </c>
@@ -5308,7 +6249,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>461</v>
       </c>
@@ -5331,7 +6272,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>465</v>
       </c>
@@ -5354,7 +6295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>468</v>
       </c>
@@ -5377,7 +6318,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>472</v>
       </c>
@@ -5400,7 +6341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>475</v>
       </c>
@@ -5423,7 +6364,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>478</v>
       </c>
@@ -5446,7 +6387,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>482</v>
       </c>
@@ -5469,7 +6410,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>485</v>
       </c>
@@ -5492,7 +6433,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>489</v>
       </c>
@@ -5515,7 +6456,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>492</v>
       </c>
@@ -5538,7 +6479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>495</v>
       </c>
@@ -5561,7 +6502,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>499</v>
       </c>
@@ -5584,7 +6525,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>503</v>
       </c>
@@ -5607,7 +6548,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>507</v>
       </c>
@@ -5630,7 +6571,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>511</v>
       </c>
@@ -5653,7 +6594,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>514</v>
       </c>
@@ -5676,7 +6617,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>518</v>
       </c>
@@ -5699,7 +6640,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>521</v>
       </c>
@@ -5722,7 +6663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>524</v>
       </c>
@@ -5745,7 +6686,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>528</v>
       </c>
@@ -5768,7 +6709,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>531</v>
       </c>
@@ -5791,7 +6732,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>534</v>
       </c>
@@ -5814,7 +6755,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>537</v>
       </c>
@@ -5837,7 +6778,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>540</v>
       </c>
@@ -5860,7 +6801,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>544</v>
       </c>
@@ -5883,7 +6824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>547</v>
       </c>
@@ -5906,7 +6847,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>551</v>
       </c>
@@ -5929,7 +6870,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>554</v>
       </c>
@@ -5952,7 +6893,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>557</v>
       </c>
@@ -5975,7 +6916,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>560</v>
       </c>
@@ -5998,7 +6939,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>564</v>
       </c>
@@ -6021,7 +6962,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>567</v>
       </c>
@@ -6044,7 +6985,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>570</v>
       </c>
@@ -6067,7 +7008,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>574</v>
       </c>
@@ -6090,7 +7031,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>578</v>
       </c>
@@ -6113,7 +7054,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>582</v>
       </c>
@@ -6136,7 +7077,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>585</v>
       </c>
@@ -6159,7 +7100,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>589</v>
       </c>
@@ -6182,7 +7123,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>593</v>
       </c>
@@ -6205,7 +7146,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>597</v>
       </c>
@@ -6228,7 +7169,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>601</v>
       </c>
@@ -6251,7 +7192,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>604</v>
       </c>
@@ -6274,7 +7215,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>608</v>
       </c>
@@ -6297,7 +7238,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>612</v>
       </c>
@@ -6320,7 +7261,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>616</v>
       </c>
@@ -6343,7 +7284,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>620</v>
       </c>
@@ -6366,7 +7307,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7">
       <c r="A176" s="2" t="s">
         <v>624</v>
       </c>
@@ -6389,7 +7330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>627</v>
       </c>
@@ -6412,7 +7353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>630</v>
       </c>
@@ -6435,7 +7376,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>633</v>
       </c>
@@ -6458,7 +7399,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>637</v>
       </c>
@@ -6481,7 +7422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>640</v>
       </c>
@@ -6504,7 +7445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>643</v>
       </c>
@@ -6527,7 +7468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>646</v>
       </c>
@@ -6550,7 +7491,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>650</v>
       </c>
@@ -6573,7 +7514,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>654</v>
       </c>
@@ -6596,7 +7537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>657</v>
       </c>
@@ -6619,7 +7560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>660</v>
       </c>
@@ -6642,7 +7583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>663</v>
       </c>
@@ -6665,7 +7606,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>666</v>
       </c>
@@ -6688,7 +7629,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>670</v>
       </c>
@@ -6711,7 +7652,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>674</v>
       </c>
@@ -6734,7 +7675,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>678</v>
       </c>
@@ -6757,7 +7698,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7">
       <c r="A193" s="2" t="s">
         <v>682</v>
       </c>
@@ -6780,7 +7721,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>687</v>
       </c>
@@ -6803,7 +7744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>690</v>
       </c>
@@ -6826,7 +7767,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>694</v>
       </c>
@@ -6849,7 +7790,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>698</v>
       </c>
@@ -6872,7 +7813,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>701</v>
       </c>
@@ -6895,7 +7836,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>704</v>
       </c>
@@ -6918,7 +7859,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>708</v>
       </c>
@@ -6941,7 +7882,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>712</v>
       </c>
@@ -6964,7 +7905,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>715</v>
       </c>
@@ -6987,7 +7928,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>718</v>
       </c>
@@ -7010,7 +7951,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>722</v>
       </c>
@@ -7033,7 +7974,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>725</v>
       </c>
@@ -7056,7 +7997,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>729</v>
       </c>
@@ -7079,7 +8020,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>733</v>
       </c>
@@ -7102,7 +8043,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>737</v>
       </c>
@@ -7125,7 +8066,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:7">
       <c r="A209" s="2" t="s">
         <v>741</v>
       </c>
@@ -7148,7 +8089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>744</v>
       </c>
@@ -7171,7 +8112,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7">
       <c r="A211" s="2" t="s">
         <v>748</v>
       </c>
@@ -7194,7 +8135,33 @@
         <v>371</v>
       </c>
     </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>